--- a/SourceCode/2023/Jan2023/SupplierChangeManagement/Data/Input/InputData.xlsx
+++ b/SourceCode/2023/Jan2023/SupplierChangeManagement/Data/Input/InputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\SourceCode\2023\Jan2023\SupplierChangeManagement\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\Jan2023\SupplierChangeManagement\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FD441-7FE7-4F1B-83A3-C3FE6EED950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E46145-6DF1-4157-A7CD-6123B7503625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-48" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,12 +369,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -390,7 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -398,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -406,7 +410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
